--- a/cmu/SurePark/Pictures/Toggl_time_entries_2016-05-23_to_2016-06-23.xlsx
+++ b/cmu/SurePark/Pictures/Toggl_time_entries_2016-05-23_to_2016-06-23.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Architect\Studio Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\SA\IChallenge\IChallenge\cmu\SurePark\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8295"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="17340" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3313,8 +3313,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="909434424"/>
-        <c:axId val="909433248"/>
+        <c:axId val="309701032"/>
+        <c:axId val="309795208"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3583,7 +3583,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$E$17</c15:sqref>
@@ -3614,7 +3614,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$B$18:$B$49</c15:sqref>
@@ -3725,7 +3725,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet3!$E$18:$E$49</c15:sqref>
@@ -3841,7 +3841,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="909434424"/>
+        <c:axId val="309701032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,14 +3884,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="909433248"/>
+        <c:crossAx val="309795208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="909433248"/>
+        <c:axId val="309795208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,7 +3942,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="909434424"/>
+        <c:crossAx val="309701032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3996,9 +3996,8 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -7035,7 +7034,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Task">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Task">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -7128,7 +7127,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블6" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:Z10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -7714,7 +7713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -8062,8 +8061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z50"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
